--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>2.984160461564445</v>
+        <v>0.004339569003111111</v>
       </c>
       <c r="R2">
-        <v>26.85744415408</v>
+        <v>0.039056121028</v>
       </c>
       <c r="S2">
-        <v>0.006039202102416381</v>
+        <v>0.000108566470154094</v>
       </c>
       <c r="T2">
-        <v>0.00603920210241638</v>
+        <v>0.000108566470154094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H3">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J3">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>0.03783566413811111</v>
+        <v>0.02401123637544444</v>
       </c>
       <c r="R3">
-        <v>0.340520977243</v>
+        <v>0.216101127379</v>
       </c>
       <c r="S3">
-        <v>7.657001872124903E-05</v>
+        <v>0.0006007083135326836</v>
       </c>
       <c r="T3">
-        <v>7.657001872124903E-05</v>
+        <v>0.0006007083135326838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="H4">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="I4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="J4">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>0.2180512511536667</v>
+        <v>0.1383794959776667</v>
       </c>
       <c r="R4">
-        <v>1.962461260383</v>
+        <v>1.245415463799</v>
       </c>
       <c r="S4">
-        <v>0.0004412817579224225</v>
+        <v>0.003461950578324114</v>
       </c>
       <c r="T4">
-        <v>0.0004412817579224225</v>
+        <v>0.003461950578324116</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>28.171991</v>
       </c>
       <c r="I5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J5">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>244.5814629133689</v>
+        <v>0.5604473285115555</v>
       </c>
       <c r="R5">
-        <v>2201.23316622032</v>
+        <v>5.044025956603999</v>
       </c>
       <c r="S5">
-        <v>0.4949723394780636</v>
+        <v>0.01402115927184707</v>
       </c>
       <c r="T5">
-        <v>0.4949723394780635</v>
+        <v>0.01402115927184707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>28.171991</v>
       </c>
       <c r="I6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>3.101006867555222</v>
@@ -818,10 +818,10 @@
         <v>27.909061807997</v>
       </c>
       <c r="S6">
-        <v>0.006275670305050953</v>
+        <v>0.07758037014567883</v>
       </c>
       <c r="T6">
-        <v>0.006275670305050953</v>
+        <v>0.07758037014567883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>28.171991</v>
       </c>
       <c r="I7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="J7">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>17.87145654000633</v>
@@ -880,10 +880,10 @@
         <v>160.843108860057</v>
       </c>
       <c r="S7">
-        <v>0.03616740430005808</v>
+        <v>0.4471045285072764</v>
       </c>
       <c r="T7">
-        <v>0.03616740430005808</v>
+        <v>0.4471045285072764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>23.905536</v>
       </c>
       <c r="I8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J8">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>207.5412762487467</v>
+        <v>0.4755714208426667</v>
       </c>
       <c r="R8">
-        <v>1867.87148623872</v>
+        <v>4.280142787583999</v>
       </c>
       <c r="S8">
-        <v>0.4200121702579371</v>
+        <v>0.01189775077433731</v>
       </c>
       <c r="T8">
-        <v>0.420012170257937</v>
+        <v>0.01189775077433732</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>23.905536</v>
       </c>
       <c r="I9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J9">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
-        <v>2.631380625834666</v>
+        <v>2.631380625834667</v>
       </c>
       <c r="R9">
         <v>23.682425632512</v>
       </c>
       <c r="S9">
-        <v>0.00532526303879362</v>
+        <v>0.0658313546746075</v>
       </c>
       <c r="T9">
-        <v>0.00532526303879362</v>
+        <v>0.0658313546746075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>23.905536</v>
       </c>
       <c r="I10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="J10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>15.164946903808</v>
@@ -1066,10 +1066,10 @@
         <v>136.484522134272</v>
       </c>
       <c r="S10">
-        <v>0.03069009874103656</v>
+        <v>0.3793936112642419</v>
       </c>
       <c r="T10">
-        <v>0.03069009874103656</v>
+        <v>0.379393611264242</v>
       </c>
     </row>
   </sheetData>
